--- a/output/0/tRNA-Phe-GAA-3-1.xlsx
+++ b/output/0/tRNA-Phe-GAA-3-1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="64">
   <si>
     <t>chr6</t>
   </si>
@@ -204,30 +204,6 @@
   </si>
   <si>
     <t>66</t>
-  </si>
-  <si>
-    <t>28775991</t>
-  </si>
-  <si>
-    <t>28776014</t>
-  </si>
-  <si>
-    <t>28775994</t>
-  </si>
-  <si>
-    <t>80,80,80</t>
-  </si>
-  <si>
-    <t>AAAATCCGAAAAAAGAGAAA</t>
-  </si>
-  <si>
-    <t>35% (45)</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 0, Doench 2016: 35%, Moreno-Mateos: 5%</t>
   </si>
 </sst>
 </file>
@@ -272,7 +248,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -691,65 +667,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" t="s">
-        <v>67</v>
-      </c>
-      <c r="J8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" t="s">
-        <v>68</v>
-      </c>
-      <c r="L8" t="s">
-        <v>9</v>
-      </c>
-      <c r="M8" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" t="s">
-        <v>69</v>
-      </c>
-      <c r="O8" t="s">
-        <v>54</v>
-      </c>
-      <c r="P8" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>70</v>
-      </c>
-      <c r="R8" t="s">
-        <v>71</v>
-      </c>
-      <c r="S8" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
